--- a/data/Overlapping_significant_genes.xlsx
+++ b/data/Overlapping_significant_genes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AshFam\Desktop\DEseq_comparisons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanlester/software_engineering_for_scientists/quiescence_project/repseqs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05CD6B4-401A-45B0-8C74-189EA6F78A26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF5C733-4D46-4045-B023-4ACB569C3357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E053003-AB7F-4DDA-B045-493BC90DA951}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23620" windowHeight="17720" xr2:uid="{4E053003-AB7F-4DDA-B045-493BC90DA951}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -787,17 +789,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF06A5A2-4C7B-4B0A-B45F-E347E5393118}">
   <dimension ref="A1:AL84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="32" max="36" width="9" bestFit="1" customWidth="1"/>
     <col min="37" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -907,7 +909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1020,7 @@
         <v>1.32791163231974E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1082,7 @@
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>10</v>
       </c>
@@ -1142,7 +1144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
         <v>11</v>
       </c>
@@ -1195,7 +1197,7 @@
         <v>142665.86291672301</v>
       </c>
       <c r="AH5" s="10">
-        <f t="shared" ref="AG5:AL5" si="1">AVERAGE(X10:X11)</f>
+        <f t="shared" ref="AH5:AL5" si="1">AVERAGE(X10:X11)</f>
         <v>47853.6647737764</v>
       </c>
       <c r="AI5" s="10">
@@ -1215,7 +1217,7 @@
         <v>9.2678201354012505E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1286,7 @@
         <v>2.4494219258290651E-14</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>13</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>6.0762459760846214E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K8" t="s">
         <v>14</v>
       </c>
@@ -1426,7 +1428,7 @@
         <v>2.0918241936715546E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K9" t="s">
         <v>15</v>
       </c>
@@ -1513,7 +1515,7 @@
         <v>1.1869283376276017E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
         <v>16</v>
       </c>
@@ -1600,7 +1602,7 @@
         <v>2.3899707964807188E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K11" t="s">
         <v>17</v>
       </c>
@@ -1662,7 +1664,7 @@
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
         <v>18</v>
       </c>
@@ -1742,7 +1744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K13" t="s">
         <v>19</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>3.0962966545758556E-10</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>20</v>
       </c>
@@ -1916,7 +1918,7 @@
         <v>3.181180523548835E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
         <v>21</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>2.7833048763346103E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="T16" s="4">
         <v>1</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>1.8179619401154454E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2183,7 +2185,7 @@
         <v>1.2899165415938184E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>3.1717815529660985E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>2.5558962858635483E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>13</v>
       </c>
@@ -2482,7 +2484,7 @@
         <v>8.2051201975677696E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="T21" s="4">
         <v>2</v>
       </c>
@@ -2511,7 +2513,7 @@
         <v>4.6978903909857601E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -2576,7 +2578,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -2653,7 +2655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K24" t="s">
         <v>30</v>
       </c>
@@ -2706,7 +2708,7 @@
         <v>3.2449320093056302E-17</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
         <v>17</v>
       </c>
@@ -2759,7 +2761,7 @@
         <v>6.1925929846585105E-10</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K26" t="s">
         <v>10</v>
       </c>
@@ -2812,7 +2814,7 @@
         <v>1.38139010661997E-12</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
         <v>18</v>
       </c>
@@ -2865,7 +2867,7 @@
         <v>6.3623610457162801E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K28" t="s">
         <v>9</v>
       </c>
@@ -2918,7 +2920,7 @@
         <v>9.7700560208321798E-14</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K29" t="s">
         <v>14</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>5.5665999826131999E-8</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
         <v>31</v>
       </c>
@@ -3024,7 +3026,7 @@
         <v>3.6146587515452698E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
         <v>32</v>
       </c>
@@ -3077,7 +3079,7 @@
         <v>2.1265128685621001E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="K32" t="s">
         <v>33</v>
       </c>
@@ -3130,7 +3132,7 @@
         <v>2.16750048140564E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
         <v>34</v>
       </c>
@@ -3183,7 +3185,7 @@
         <v>4.12332601781997E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T34" s="4">
         <v>1</v>
       </c>
@@ -3212,7 +3214,7 @@
         <v>8.6034292147365002E-6</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -3295,7 +3297,7 @@
         <v>6.3349596767174601E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>12</v>
       </c>
@@ -3372,7 +3374,7 @@
         <v>7.6428326280679696E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>8</v>
       </c>
@@ -3449,7 +3451,7 @@
         <v>4.3475093089202999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>31</v>
       </c>
@@ -3499,7 +3501,7 @@
         <v>3.7848071351129897E-12</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>21</v>
       </c>
@@ -3549,7 +3551,7 @@
         <v>9.7136266579686108E-9</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>36</v>
       </c>
@@ -3599,7 +3601,7 @@
         <v>1.2151273831711899E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>18</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>1.29142579043156E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>37</v>
       </c>
@@ -3699,7 +3701,7 @@
         <v>1.2256914804075001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>38</v>
       </c>
@@ -3749,7 +3751,7 @@
         <v>9.0490411830877401E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>39</v>
       </c>
@@ -3799,7 +3801,7 @@
         <v>1.04273931896773E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>40</v>
       </c>
@@ -3849,7 +3851,7 @@
         <v>1.1210591404076599E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>41</v>
       </c>
@@ -3899,7 +3901,7 @@
         <v>1.8535640270802501E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>42</v>
       </c>
@@ -3949,7 +3951,7 @@
         <v>1.86001505647162E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>43</v>
       </c>
@@ -3999,7 +4001,7 @@
         <v>1.92554907481047E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>44</v>
       </c>
@@ -4049,7 +4051,7 @@
         <v>2.2931878779973401E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K50" t="s">
         <v>48</v>
       </c>
@@ -4075,7 +4077,7 @@
         <v>3.01970121273323E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K51" t="s">
         <v>36</v>
       </c>
@@ -4101,7 +4103,7 @@
         <v>4.1836457728894903E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K52" t="s">
         <v>38</v>
       </c>
@@ -4127,7 +4129,7 @@
         <v>4.6978903909857601E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K53" t="s">
         <v>49</v>
       </c>
@@ -4153,7 +4155,7 @@
         <v>4.8994808968009701E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>50</v>
       </c>
@@ -4209,7 +4211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>8</v>
       </c>
@@ -4259,7 +4261,7 @@
         <v>1.38139010661997E-12</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>31</v>
       </c>
@@ -4309,7 +4311,7 @@
         <v>6.1925929846585105E-10</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>41</v>
       </c>
@@ -4359,7 +4361,7 @@
         <v>2.6823677350069799E-8</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>39</v>
       </c>
@@ -4409,7 +4411,7 @@
         <v>5.5665999826131999E-8</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>20</v>
       </c>
@@ -4459,7 +4461,7 @@
         <v>1.0882802005730101E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>51</v>
       </c>
@@ -4509,7 +4511,7 @@
         <v>2.1265128685621001E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>52</v>
       </c>
@@ -4559,7 +4561,7 @@
         <v>4.12332601781997E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>53</v>
       </c>
@@ -4609,7 +4611,7 @@
         <v>6.3349596767174601E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>54</v>
       </c>
@@ -4659,7 +4661,7 @@
         <v>6.3349596767174601E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>55</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>9.8404306240211306E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>14</v>
       </c>
@@ -4759,7 +4761,7 @@
         <v>2.9928790055785699E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>37</v>
       </c>
@@ -4809,7 +4811,7 @@
         <v>4.3475093089202999E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>56</v>
       </c>
@@ -4835,7 +4837,7 @@
         <v>4.6848298470340303E-3</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>57</v>
       </c>
@@ -4861,7 +4863,7 @@
         <v>6.3623610457162801E-3</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>13</v>
       </c>
@@ -4887,7 +4889,7 @@
         <v>6.3623610457162801E-3</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>58</v>
       </c>
@@ -4913,7 +4915,7 @@
         <v>6.3623610457162801E-3</v>
       </c>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>59</v>
       </c>
@@ -4939,7 +4941,7 @@
         <v>6.3656596953460404E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>60</v>
       </c>
@@ -4965,7 +4967,7 @@
         <v>6.3656596953460404E-3</v>
       </c>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>42</v>
       </c>
@@ -4991,7 +4993,7 @@
         <v>7.6428326280679696E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>61</v>
       </c>
@@ -5017,7 +5019,7 @@
         <v>9.6192401766485892E-3</v>
       </c>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>40</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>1.2645086669680601E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>62</v>
       </c>
@@ -5069,7 +5071,7 @@
         <v>1.2645086669680601E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>43</v>
       </c>
@@ -5095,7 +5097,7 @@
         <v>2.6161932284659101E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>63</v>
       </c>
@@ -5121,7 +5123,7 @@
         <v>2.6161932284659101E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>64</v>
       </c>
@@ -5147,7 +5149,7 @@
         <v>3.3631345480537901E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>66</v>
       </c>
@@ -5173,7 +5175,7 @@
         <v>3.9274836504026397E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>67</v>
       </c>
@@ -5199,7 +5201,7 @@
         <v>4.0620124203991699E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>68</v>
       </c>
@@ -5225,7 +5227,7 @@
         <v>4.9672486656017797E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>69</v>
       </c>
